--- a/results/noscrn_dictionary.xlsx
+++ b/results/noscrn_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caop/Downloads/PLUS-Comorbidity/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/al8xi8/Documents/GitHub/lcrisks_simulation/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EE3374-21D5-8248-861E-7FCB0B06F6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258F5B66-A2B3-AA45-9A87-129FED8AC68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="4320" windowWidth="27240" windowHeight="16440" xr2:uid="{BD19427A-0085-A34C-A818-9D11F81E4CD5}"/>
+    <workbookView xWindow="3420" yWindow="6700" windowWidth="27240" windowHeight="16440" xr2:uid="{BD19427A-0085-A34C-A818-9D11F81E4CD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1114,11 +1114,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EB73EE-C280-4047-A5C8-D9AD69DFB391}">
   <dimension ref="A1:HI11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DG1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="DM6" sqref="DM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:217" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
